--- a/Externaldata/Procurement_Of_Paddy.xlsx
+++ b/Externaldata/Procurement_Of_Paddy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD063F0-2FB0-45F8-BCF4-3E68FEFADADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54040DE1-2016-453A-BA11-9FAE2626B8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>District/Cooperative Division</t>
   </si>
@@ -138,12 +138,6 @@
   </si>
   <si>
     <t>PACS Submit status</t>
-  </si>
-  <si>
-    <t>Successfu</t>
-  </si>
-  <si>
-    <t>Not Verified</t>
   </si>
   <si>
     <t>Successfully Verified</t>
@@ -714,7 +708,7 @@
         <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="4" t="s">

--- a/Externaldata/Procurement_Of_Paddy.xlsx
+++ b/Externaldata/Procurement_Of_Paddy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>District/Cooperative Division</t>
   </si>

--- a/Externaldata/Procurement_Of_Paddy.xlsx
+++ b/Externaldata/Procurement_Of_Paddy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54040DE1-2016-453A-BA11-9FAE2626B8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6949E9-4EB1-498A-A994-AAB09003CEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -552,7 +552,7 @@
     <col min="5" max="5" customWidth="true" width="15.44140625"/>
     <col min="6" max="6" customWidth="true" width="14.109375"/>
     <col min="8" max="8" customWidth="true" width="18.88671875"/>
-    <col min="9" max="9" customWidth="true" width="17.6640625"/>
+    <col min="9" max="9" customWidth="true" width="27.44140625"/>
     <col min="10" max="10" customWidth="true" width="18.109375"/>
     <col min="11" max="11" customWidth="true" width="20.88671875"/>
     <col min="12" max="12" customWidth="true" width="20.0"/>

--- a/Externaldata/Procurement_Of_Paddy.xlsx
+++ b/Externaldata/Procurement_Of_Paddy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6949E9-4EB1-498A-A994-AAB09003CEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B35B35-E63E-4228-9995-268EB922E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>District/Cooperative Division</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>PACS Submit status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully </t>
   </si>
   <si>
     <t>Successfully Verified</t>
@@ -708,7 +711,7 @@
         <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="4" t="s">

--- a/Externaldata/Procurement_Of_Paddy.xlsx
+++ b/Externaldata/Procurement_Of_Paddy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B35B35-E63E-4228-9995-268EB922E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8906BA-10A9-4CC1-83BF-ACEB87785276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>District/Cooperative Division</t>
   </si>
@@ -101,27 +101,9 @@
     <t>Oasys@1234</t>
   </si>
   <si>
-    <t>admin194@gmail.com</t>
-  </si>
-  <si>
-    <t>Cams@1234</t>
-  </si>
-  <si>
     <t>payal@oasys.com</t>
   </si>
   <si>
-    <t>Abhayapur SCS</t>
-  </si>
-  <si>
-    <t>Ganjam</t>
-  </si>
-  <si>
-    <t>Berhampur</t>
-  </si>
-  <si>
-    <t>Chikiti</t>
-  </si>
-  <si>
     <t>CUTTACK</t>
   </si>
   <si>
@@ -131,26 +113,34 @@
     <t>Niali</t>
   </si>
   <si>
-    <t>Kotilingi</t>
-  </si>
-  <si>
     <t>Rama</t>
   </si>
   <si>
     <t>PACS Submit status</t>
   </si>
   <si>
-    <t xml:space="preserve">Successfully </t>
-  </si>
-  <si>
-    <t>Successfully Verified</t>
+    <t>Jharsuguda</t>
+  </si>
+  <si>
+    <t>Laikera</t>
+  </si>
+  <si>
+    <t>LAIKERA SCS</t>
+  </si>
+  <si>
+    <t>sasi</t>
+  </si>
+  <si>
+    <t>sasi11@gmail.com</t>
+  </si>
+  <si>
+    <t>Siba@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,28 +532,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.0"/>
-    <col min="2" max="2" customWidth="true" width="29.0"/>
-    <col min="3" max="3" customWidth="true" width="23.88671875"/>
-    <col min="4" max="4" customWidth="true" width="28.109375"/>
-    <col min="5" max="5" customWidth="true" width="15.44140625"/>
-    <col min="6" max="6" customWidth="true" width="14.109375"/>
-    <col min="8" max="8" customWidth="true" width="18.88671875"/>
-    <col min="9" max="9" customWidth="true" width="27.44140625"/>
-    <col min="10" max="10" customWidth="true" width="18.109375"/>
-    <col min="11" max="11" customWidth="true" width="20.88671875"/>
-    <col min="12" max="12" customWidth="true" width="20.0"/>
-    <col min="13" max="13" customWidth="true" width="15.44140625"/>
-    <col min="14" max="14" customWidth="true" width="18.33203125"/>
-    <col min="15" max="15" customWidth="true" width="17.44140625"/>
-    <col min="16" max="16" customWidth="true" width="16.109375"/>
-    <col min="18" max="18" customWidth="true" width="21.88671875"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" customWidth="1"/>
+    <col min="18" max="18" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="57.6" x14ac:dyDescent="0.3">
@@ -619,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>14</v>
@@ -660,31 +651,31 @@
     </row>
     <row r="2" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2">
         <v>240</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2">
         <v>200</v>
@@ -702,20 +693,17 @@
         <v>200</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>27</v>
@@ -738,6 +726,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="T2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{04E36EA9-D1CF-4828-8002-BD7F322057E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
